--- a/vn_post_api/excelfile.xlsx
+++ b/vn_post_api/excelfile.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="460">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="519">
   <x:si>
     <x:t xml:space="preserve">THỐNG KÊ ĐƠN HÀNG </x:t>
   </x:si>
@@ -1400,6 +1400,183 @@
   </x:si>
   <x:si>
     <x:t>Cẩm Giàng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200524K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212251165VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTYT huyện Tân Yên - Bắc Giang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0912686138</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cao Thượng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tân Yên</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200524K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212251205VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200525K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212252418VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PKĐK Ngọc Thiện INS - Bắc Giang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0965431828</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thôn Tân Lập</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngọc Thiện</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200525K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212252608VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200526</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212254507VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212256145VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTYT huyện Ninh Giang - Hải Dương</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0989744302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>...,, Ninh Giang, Ninh Giang, Hải Dương (NR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ninh Giang</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK212251236VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thôn Tân Lập, Ngọc Thiện, Tân Yên, Bắc Giang (NR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P100001836754</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK212251222VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK212251205VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>...,, Cao Thượng, Tân Yên, Bắc Giang (NR)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>P100001836916</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PK212251219VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200544</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212838463VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12H1 Khu Đô Thị Yên Hòa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0989 451429</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Đường Nguyễn Tất Thành</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200545K1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212839945VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTYT huyện Sông Lô - Vĩnh Phúc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0393904632</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nhạo Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sông Lô</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200545K2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212840039VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212850597VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TTYT huyện Ngân Sơn - Bắc Kạn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0986877458</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ban Súng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vân Tùng</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ngân Sơn</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MR0001PBNH10202200547</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CK212853148VN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BV Phổi Thái Bình - Thái Bình</x:t>
+  </x:si>
+  <x:si>
+    <x:t>091 2083075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vũ Chính</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thái Bình</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Thái Bình</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -2189,7 +2366,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:AZ163"/>
+  <x:dimension ref="A1:AZ178"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -17414,6 +17591,1399 @@
       </x:c>
       <x:c r="AI163" s="3" t="s"/>
     </x:row>
+    <x:row r="164" spans="1:52">
+      <x:c r="A164" s="5" t="n">
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B164" s="28" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C164" s="3" t="s">
+        <x:v>461</x:v>
+      </x:c>
+      <x:c r="D164" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E164" s="51">
+        <x:v>44860.5622569444</x:v>
+      </x:c>
+      <x:c r="F164" s="3" t="s"/>
+      <x:c r="G164" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H164" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I164" s="52" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J164" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K164" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L164" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M164" s="3" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="N164" s="52" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="O164" s="3" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="P164" s="3" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="Q164" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R164" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S164" s="3" t="s"/>
+      <x:c r="T164" s="3" t="s"/>
+      <x:c r="U164" s="3" t="s"/>
+      <x:c r="V164" s="3" t="s"/>
+      <x:c r="W164" s="7" t="s"/>
+      <x:c r="X164" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y164" s="6" t="s"/>
+      <x:c r="Z164" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA164" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB164" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC164" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD164" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE164" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF164" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG164" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH164" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI164" s="3" t="s"/>
+    </x:row>
+    <x:row r="165" spans="1:52">
+      <x:c r="A165" s="5" t="n">
+        <x:v>161</x:v>
+      </x:c>
+      <x:c r="B165" s="28" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="C165" s="3" t="s">
+        <x:v>467</x:v>
+      </x:c>
+      <x:c r="D165" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E165" s="51">
+        <x:v>44860.5623263889</x:v>
+      </x:c>
+      <x:c r="F165" s="3" t="s"/>
+      <x:c r="G165" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H165" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I165" s="52" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J165" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K165" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L165" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M165" s="3" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="N165" s="52" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="O165" s="3" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="P165" s="3" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="Q165" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R165" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S165" s="3" t="s"/>
+      <x:c r="T165" s="3" t="s"/>
+      <x:c r="U165" s="3" t="s"/>
+      <x:c r="V165" s="3" t="s"/>
+      <x:c r="W165" s="7" t="s"/>
+      <x:c r="X165" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y165" s="6" t="s"/>
+      <x:c r="Z165" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA165" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB165" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC165" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD165" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE165" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF165" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG165" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH165" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI165" s="3" t="s"/>
+    </x:row>
+    <x:row r="166" spans="1:52">
+      <x:c r="A166" s="5" t="n">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B166" s="28" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C166" s="3" t="s">
+        <x:v>469</x:v>
+      </x:c>
+      <x:c r="D166" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E166" s="51">
+        <x:v>44860.5635416667</x:v>
+      </x:c>
+      <x:c r="F166" s="3" t="s"/>
+      <x:c r="G166" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H166" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I166" s="52" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J166" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K166" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L166" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M166" s="3" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="N166" s="52" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="O166" s="3" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="P166" s="3" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="Q166" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R166" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S166" s="3" t="s"/>
+      <x:c r="T166" s="3" t="s"/>
+      <x:c r="U166" s="3" t="s"/>
+      <x:c r="V166" s="3" t="s"/>
+      <x:c r="W166" s="7" t="s"/>
+      <x:c r="X166" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y166" s="6" t="s"/>
+      <x:c r="Z166" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA166" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB166" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC166" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD166" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE166" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF166" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG166" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH166" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI166" s="3" t="s"/>
+    </x:row>
+    <x:row r="167" spans="1:52">
+      <x:c r="A167" s="5" t="n">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="B167" s="28" t="s">
+        <x:v>474</x:v>
+      </x:c>
+      <x:c r="C167" s="3" t="s">
+        <x:v>475</x:v>
+      </x:c>
+      <x:c r="D167" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E167" s="51">
+        <x:v>44860.5636111111</x:v>
+      </x:c>
+      <x:c r="F167" s="3" t="s"/>
+      <x:c r="G167" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H167" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I167" s="52" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="J167" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K167" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L167" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M167" s="3" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="N167" s="52" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="O167" s="3" t="s">
+        <x:v>472</x:v>
+      </x:c>
+      <x:c r="P167" s="3" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="Q167" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R167" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S167" s="3" t="s"/>
+      <x:c r="T167" s="3" t="s"/>
+      <x:c r="U167" s="3" t="s"/>
+      <x:c r="V167" s="3" t="s"/>
+      <x:c r="W167" s="7" t="s"/>
+      <x:c r="X167" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y167" s="6" t="s"/>
+      <x:c r="Z167" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA167" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB167" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC167" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD167" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE167" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF167" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG167" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH167" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI167" s="3" t="s"/>
+    </x:row>
+    <x:row r="168" spans="1:52">
+      <x:c r="A168" s="5" t="n">
+        <x:v>164</x:v>
+      </x:c>
+      <x:c r="B168" s="28" t="s">
+        <x:v>476</x:v>
+      </x:c>
+      <x:c r="C168" s="3" t="s">
+        <x:v>477</x:v>
+      </x:c>
+      <x:c r="D168" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E168" s="51">
+        <x:v>44860.5652199074</x:v>
+      </x:c>
+      <x:c r="F168" s="51">
+        <x:v>44860.656724537</x:v>
+      </x:c>
+      <x:c r="G168" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H168" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I168" s="52" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J168" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K168" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L168" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M168" s="3" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="N168" s="52" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="O168" s="3" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="P168" s="3" t="s">
+        <x:v>218</x:v>
+      </x:c>
+      <x:c r="Q168" s="3" t="s">
+        <x:v>219</x:v>
+      </x:c>
+      <x:c r="R168" s="3" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="S168" s="51">
+        <x:v>44861.5976388889</x:v>
+      </x:c>
+      <x:c r="T168" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="U168" s="3" t="s"/>
+      <x:c r="V168" s="3" t="s"/>
+      <x:c r="W168" s="7" t="s"/>
+      <x:c r="X168" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y168" s="6" t="s"/>
+      <x:c r="Z168" s="3" t="n">
+        <x:v>15350</x:v>
+      </x:c>
+      <x:c r="AA168" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB168" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC168" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD168" s="3" t="n">
+        <x:v>85019</x:v>
+      </x:c>
+      <x:c r="AE168" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF168" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG168" s="3" t="n">
+        <x:v>107019</x:v>
+      </x:c>
+      <x:c r="AH168" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AI168" s="3" t="s"/>
+    </x:row>
+    <x:row r="169" spans="1:52">
+      <x:c r="A169" s="5" t="n">
+        <x:v>165</x:v>
+      </x:c>
+      <x:c r="B169" s="28" t="s">
+        <x:v>478</x:v>
+      </x:c>
+      <x:c r="C169" s="3" t="s">
+        <x:v>479</x:v>
+      </x:c>
+      <x:c r="D169" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E169" s="51">
+        <x:v>44860.5665277778</x:v>
+      </x:c>
+      <x:c r="F169" s="51">
+        <x:v>44860.6561226852</x:v>
+      </x:c>
+      <x:c r="G169" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H169" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I169" s="52" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="J169" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K169" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L169" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M169" s="3" t="s">
+        <x:v>480</x:v>
+      </x:c>
+      <x:c r="N169" s="52" t="s">
+        <x:v>481</x:v>
+      </x:c>
+      <x:c r="O169" s="3" t="s">
+        <x:v>482</x:v>
+      </x:c>
+      <x:c r="P169" s="3" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="Q169" s="3" t="s">
+        <x:v>483</x:v>
+      </x:c>
+      <x:c r="R169" s="3" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="S169" s="51">
+        <x:v>44861.4548611111</x:v>
+      </x:c>
+      <x:c r="T169" s="3" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="U169" s="3" t="s"/>
+      <x:c r="V169" s="3" t="s"/>
+      <x:c r="W169" s="7" t="s"/>
+      <x:c r="X169" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y169" s="6" t="s"/>
+      <x:c r="Z169" s="3" t="n">
+        <x:v>5300</x:v>
+      </x:c>
+      <x:c r="AA169" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB169" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC169" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD169" s="3" t="n">
+        <x:v>56713</x:v>
+      </x:c>
+      <x:c r="AE169" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF169" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG169" s="3" t="n">
+        <x:v>78713</x:v>
+      </x:c>
+      <x:c r="AH169" s="3" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="AI169" s="3" t="s"/>
+    </x:row>
+    <x:row r="170" spans="1:52">
+      <x:c r="A170" s="5" t="n">
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B170" s="28" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C170" s="3" t="s">
+        <x:v>484</x:v>
+      </x:c>
+      <x:c r="D170" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E170" s="51">
+        <x:v>44860.6551157407</x:v>
+      </x:c>
+      <x:c r="F170" s="51">
+        <x:v>44860.6551157407</x:v>
+      </x:c>
+      <x:c r="G170" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H170" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I170" s="52" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="J170" s="3" t="s"/>
+      <x:c r="K170" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L170" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M170" s="3" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="N170" s="52" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="O170" s="3" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="P170" s="3" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="Q170" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R170" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S170" s="3" t="s"/>
+      <x:c r="T170" s="3" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="U170" s="3" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="V170" s="3" t="s"/>
+      <x:c r="W170" s="7" t="s"/>
+      <x:c r="X170" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y170" s="6" t="s"/>
+      <x:c r="Z170" s="3" t="n">
+        <x:v>9530</x:v>
+      </x:c>
+      <x:c r="AA170" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB170" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC170" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD170" s="3" t="n">
+        <x:v>321764</x:v>
+      </x:c>
+      <x:c r="AE170" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF170" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG170" s="3" t="n">
+        <x:v>343764</x:v>
+      </x:c>
+      <x:c r="AH170" s="3" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="AI170" s="3" t="s"/>
+    </x:row>
+    <x:row r="171" spans="1:52">
+      <x:c r="A171" s="5" t="n">
+        <x:v>167</x:v>
+      </x:c>
+      <x:c r="B171" s="28" t="s">
+        <x:v>468</x:v>
+      </x:c>
+      <x:c r="C171" s="3" t="s">
+        <x:v>487</x:v>
+      </x:c>
+      <x:c r="D171" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E171" s="51">
+        <x:v>44860.6551157407</x:v>
+      </x:c>
+      <x:c r="F171" s="51">
+        <x:v>44860.6551157407</x:v>
+      </x:c>
+      <x:c r="G171" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H171" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I171" s="52" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="J171" s="3" t="s"/>
+      <x:c r="K171" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L171" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M171" s="3" t="s">
+        <x:v>470</x:v>
+      </x:c>
+      <x:c r="N171" s="52" t="s">
+        <x:v>471</x:v>
+      </x:c>
+      <x:c r="O171" s="3" t="s">
+        <x:v>485</x:v>
+      </x:c>
+      <x:c r="P171" s="3" t="s">
+        <x:v>473</x:v>
+      </x:c>
+      <x:c r="Q171" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R171" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S171" s="3" t="s"/>
+      <x:c r="T171" s="3" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="U171" s="3" t="s">
+        <x:v>486</x:v>
+      </x:c>
+      <x:c r="V171" s="3" t="s"/>
+      <x:c r="W171" s="7" t="s"/>
+      <x:c r="X171" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y171" s="6" t="s"/>
+      <x:c r="Z171" s="3" t="n">
+        <x:v>11000</x:v>
+      </x:c>
+      <x:c r="AA171" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB171" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC171" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD171" s="3" t="n">
+        <x:v>321764</x:v>
+      </x:c>
+      <x:c r="AE171" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF171" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG171" s="3" t="n">
+        <x:v>343764</x:v>
+      </x:c>
+      <x:c r="AH171" s="3" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="AI171" s="3" t="s"/>
+    </x:row>
+    <x:row r="172" spans="1:52">
+      <x:c r="A172" s="5" t="n">
+        <x:v>168</x:v>
+      </x:c>
+      <x:c r="B172" s="28" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="C172" s="3" t="s">
+        <x:v>488</x:v>
+      </x:c>
+      <x:c r="D172" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E172" s="51">
+        <x:v>44860.6552199074</x:v>
+      </x:c>
+      <x:c r="F172" s="51">
+        <x:v>44860.6552199074</x:v>
+      </x:c>
+      <x:c r="G172" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H172" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I172" s="52" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="J172" s="3" t="s"/>
+      <x:c r="K172" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L172" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M172" s="3" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="N172" s="52" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="O172" s="3" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="P172" s="3" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="Q172" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R172" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S172" s="3" t="s"/>
+      <x:c r="T172" s="3" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="U172" s="3" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="V172" s="3" t="s"/>
+      <x:c r="W172" s="7" t="s"/>
+      <x:c r="X172" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y172" s="6" t="s"/>
+      <x:c r="Z172" s="3" t="n">
+        <x:v>7700</x:v>
+      </x:c>
+      <x:c r="AA172" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB172" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC172" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD172" s="3" t="n">
+        <x:v>280724</x:v>
+      </x:c>
+      <x:c r="AE172" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF172" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG172" s="3" t="n">
+        <x:v>302724</x:v>
+      </x:c>
+      <x:c r="AH172" s="3" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="AI172" s="3" t="s"/>
+    </x:row>
+    <x:row r="173" spans="1:52">
+      <x:c r="A173" s="5" t="n">
+        <x:v>169</x:v>
+      </x:c>
+      <x:c r="B173" s="28" t="s">
+        <x:v>466</x:v>
+      </x:c>
+      <x:c r="C173" s="3" t="s">
+        <x:v>491</x:v>
+      </x:c>
+      <x:c r="D173" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E173" s="51">
+        <x:v>44860.6552199074</x:v>
+      </x:c>
+      <x:c r="F173" s="51">
+        <x:v>44860.6552199074</x:v>
+      </x:c>
+      <x:c r="G173" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H173" s="3" t="n">
+        <x:v>2437833848</x:v>
+      </x:c>
+      <x:c r="I173" s="52" t="s">
+        <x:v>273</x:v>
+      </x:c>
+      <x:c r="J173" s="3" t="s"/>
+      <x:c r="K173" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L173" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M173" s="3" t="s">
+        <x:v>462</x:v>
+      </x:c>
+      <x:c r="N173" s="52" t="s">
+        <x:v>463</x:v>
+      </x:c>
+      <x:c r="O173" s="3" t="s">
+        <x:v>489</x:v>
+      </x:c>
+      <x:c r="P173" s="3" t="s">
+        <x:v>464</x:v>
+      </x:c>
+      <x:c r="Q173" s="3" t="s">
+        <x:v>465</x:v>
+      </x:c>
+      <x:c r="R173" s="3" t="s">
+        <x:v>111</x:v>
+      </x:c>
+      <x:c r="S173" s="3" t="s"/>
+      <x:c r="T173" s="3" t="s">
+        <x:v>286</x:v>
+      </x:c>
+      <x:c r="U173" s="3" t="s">
+        <x:v>490</x:v>
+      </x:c>
+      <x:c r="V173" s="3" t="s"/>
+      <x:c r="W173" s="7" t="s"/>
+      <x:c r="X173" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y173" s="6" t="s"/>
+      <x:c r="Z173" s="3" t="n">
+        <x:v>6430</x:v>
+      </x:c>
+      <x:c r="AA173" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB173" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC173" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD173" s="3" t="n">
+        <x:v>280724</x:v>
+      </x:c>
+      <x:c r="AE173" s="3" t="n">
+        <x:v>22000</x:v>
+      </x:c>
+      <x:c r="AF173" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG173" s="3" t="n">
+        <x:v>302724</x:v>
+      </x:c>
+      <x:c r="AH173" s="3" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="AI173" s="3" t="s"/>
+    </x:row>
+    <x:row r="174" spans="1:52">
+      <x:c r="A174" s="5" t="n">
+        <x:v>170</x:v>
+      </x:c>
+      <x:c r="B174" s="28" t="s">
+        <x:v>492</x:v>
+      </x:c>
+      <x:c r="C174" s="3" t="s">
+        <x:v>493</x:v>
+      </x:c>
+      <x:c r="D174" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E174" s="51">
+        <x:v>44861.5745023148</x:v>
+      </x:c>
+      <x:c r="F174" s="3" t="s"/>
+      <x:c r="G174" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H174" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I174" s="52" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="J174" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K174" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L174" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M174" s="3" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="N174" s="52" t="s">
+        <x:v>495</x:v>
+      </x:c>
+      <x:c r="O174" s="3" t="s">
+        <x:v>496</x:v>
+      </x:c>
+      <x:c r="P174" s="3" t="s">
+        <x:v>124</x:v>
+      </x:c>
+      <x:c r="Q174" s="3" t="s">
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="R174" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S174" s="3" t="s"/>
+      <x:c r="T174" s="3" t="s"/>
+      <x:c r="U174" s="3" t="s"/>
+      <x:c r="V174" s="3" t="s"/>
+      <x:c r="W174" s="7" t="s"/>
+      <x:c r="X174" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y174" s="6" t="s"/>
+      <x:c r="Z174" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA174" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB174" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC174" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD174" s="3" t="n">
+        <x:v>7865</x:v>
+      </x:c>
+      <x:c r="AE174" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF174" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG174" s="3" t="n">
+        <x:v>13365</x:v>
+      </x:c>
+      <x:c r="AH174" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI174" s="3" t="s"/>
+    </x:row>
+    <x:row r="175" spans="1:52">
+      <x:c r="A175" s="5" t="n">
+        <x:v>171</x:v>
+      </x:c>
+      <x:c r="B175" s="28" t="s">
+        <x:v>497</x:v>
+      </x:c>
+      <x:c r="C175" s="3" t="s">
+        <x:v>498</x:v>
+      </x:c>
+      <x:c r="D175" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E175" s="51">
+        <x:v>44861.5754976852</x:v>
+      </x:c>
+      <x:c r="F175" s="3" t="s"/>
+      <x:c r="G175" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H175" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I175" s="52" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="J175" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K175" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L175" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M175" s="3" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="N175" s="52" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O175" s="3" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="P175" s="3" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="Q175" s="3" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="R175" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S175" s="3" t="s"/>
+      <x:c r="T175" s="3" t="s"/>
+      <x:c r="U175" s="3" t="s"/>
+      <x:c r="V175" s="3" t="s"/>
+      <x:c r="W175" s="7" t="s"/>
+      <x:c r="X175" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y175" s="6" t="s"/>
+      <x:c r="Z175" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA175" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB175" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC175" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD175" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE175" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF175" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG175" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH175" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI175" s="3" t="s"/>
+    </x:row>
+    <x:row r="176" spans="1:52">
+      <x:c r="A176" s="5" t="n">
+        <x:v>172</x:v>
+      </x:c>
+      <x:c r="B176" s="28" t="s">
+        <x:v>503</x:v>
+      </x:c>
+      <x:c r="C176" s="3" t="s">
+        <x:v>504</x:v>
+      </x:c>
+      <x:c r="D176" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E176" s="51">
+        <x:v>44861.5755671296</x:v>
+      </x:c>
+      <x:c r="F176" s="3" t="s"/>
+      <x:c r="G176" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H176" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I176" s="52" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="J176" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K176" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L176" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M176" s="3" t="s">
+        <x:v>499</x:v>
+      </x:c>
+      <x:c r="N176" s="52" t="s">
+        <x:v>500</x:v>
+      </x:c>
+      <x:c r="O176" s="3" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="P176" s="3" t="s">
+        <x:v>501</x:v>
+      </x:c>
+      <x:c r="Q176" s="3" t="s">
+        <x:v>502</x:v>
+      </x:c>
+      <x:c r="R176" s="3" t="s">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="S176" s="3" t="s"/>
+      <x:c r="T176" s="3" t="s"/>
+      <x:c r="U176" s="3" t="s"/>
+      <x:c r="V176" s="3" t="s"/>
+      <x:c r="W176" s="7" t="s"/>
+      <x:c r="X176" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y176" s="6" t="s"/>
+      <x:c r="Z176" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA176" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB176" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC176" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD176" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE176" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF176" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG176" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH176" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI176" s="3" t="s"/>
+    </x:row>
+    <x:row r="177" spans="1:52">
+      <x:c r="A177" s="5" t="n">
+        <x:v>173</x:v>
+      </x:c>
+      <x:c r="B177" s="28" t="s">
+        <x:v>505</x:v>
+      </x:c>
+      <x:c r="C177" s="3" t="s">
+        <x:v>506</x:v>
+      </x:c>
+      <x:c r="D177" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E177" s="51">
+        <x:v>44861.5809953704</x:v>
+      </x:c>
+      <x:c r="F177" s="3" t="s"/>
+      <x:c r="G177" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H177" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I177" s="52" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="J177" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K177" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L177" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M177" s="3" t="s">
+        <x:v>507</x:v>
+      </x:c>
+      <x:c r="N177" s="52" t="s">
+        <x:v>508</x:v>
+      </x:c>
+      <x:c r="O177" s="3" t="s">
+        <x:v>509</x:v>
+      </x:c>
+      <x:c r="P177" s="3" t="s">
+        <x:v>510</x:v>
+      </x:c>
+      <x:c r="Q177" s="3" t="s">
+        <x:v>511</x:v>
+      </x:c>
+      <x:c r="R177" s="3" t="s">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="S177" s="3" t="s"/>
+      <x:c r="T177" s="3" t="s"/>
+      <x:c r="U177" s="3" t="s"/>
+      <x:c r="V177" s="3" t="s"/>
+      <x:c r="W177" s="7" t="s"/>
+      <x:c r="X177" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y177" s="6" t="s"/>
+      <x:c r="Z177" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA177" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB177" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC177" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD177" s="3" t="n">
+        <x:v>9295</x:v>
+      </x:c>
+      <x:c r="AE177" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF177" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG177" s="3" t="n">
+        <x:v>14795</x:v>
+      </x:c>
+      <x:c r="AH177" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI177" s="3" t="s"/>
+    </x:row>
+    <x:row r="178" spans="1:52">
+      <x:c r="A178" s="5" t="n">
+        <x:v>174</x:v>
+      </x:c>
+      <x:c r="B178" s="28" t="s">
+        <x:v>512</x:v>
+      </x:c>
+      <x:c r="C178" s="3" t="s">
+        <x:v>513</x:v>
+      </x:c>
+      <x:c r="D178" s="3" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="E178" s="51">
+        <x:v>44861.5836111111</x:v>
+      </x:c>
+      <x:c r="F178" s="3" t="s"/>
+      <x:c r="G178" s="3" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="H178" s="3" t="n">
+        <x:v>2437868020</x:v>
+      </x:c>
+      <x:c r="I178" s="52" t="s">
+        <x:v>494</x:v>
+      </x:c>
+      <x:c r="J178" s="3" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="K178" s="3" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="L178" s="3" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="M178" s="3" t="s">
+        <x:v>514</x:v>
+      </x:c>
+      <x:c r="N178" s="52" t="s">
+        <x:v>515</x:v>
+      </x:c>
+      <x:c r="O178" s="3" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="P178" s="3" t="s">
+        <x:v>516</x:v>
+      </x:c>
+      <x:c r="Q178" s="3" t="s">
+        <x:v>517</x:v>
+      </x:c>
+      <x:c r="R178" s="3" t="s">
+        <x:v>518</x:v>
+      </x:c>
+      <x:c r="S178" s="3" t="s"/>
+      <x:c r="T178" s="3" t="s"/>
+      <x:c r="U178" s="3" t="s"/>
+      <x:c r="V178" s="3" t="s"/>
+      <x:c r="W178" s="7" t="s"/>
+      <x:c r="X178" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="Y178" s="6" t="s"/>
+      <x:c r="Z178" s="3" t="n">
+        <x:v>0.1</x:v>
+      </x:c>
+      <x:c r="AA178" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AB178" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AC178" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AD178" s="3" t="n">
+        <x:v>7865</x:v>
+      </x:c>
+      <x:c r="AE178" s="3" t="n">
+        <x:v>5500</x:v>
+      </x:c>
+      <x:c r="AF178" s="3" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="AG178" s="3" t="n">
+        <x:v>13365</x:v>
+      </x:c>
+      <x:c r="AH178" s="3" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="AI178" s="3" t="s"/>
+    </x:row>
   </x:sheetData>
   <x:mergeCells count="27">
     <x:mergeCell ref="A1:AH1"/>
